--- a/Git Hub Data Excel/Jan_2008.xlsx
+++ b/Git Hub Data Excel/Jan_2008.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\seng403_New\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\seng403_New\Git Hub Data Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4635"/>
   </bookViews>
   <sheets>
-    <sheet name="Jan 2008 (Sample)0" sheetId="2" r:id="rId1"/>
+    <sheet name="Jan 2008" sheetId="2" r:id="rId1"/>
     <sheet name="RAW DATA" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Jan_2008_Contributors" localSheetId="0">'Jan 2008 (Sample)0'!$B$2:$C$3</definedName>
-    <definedName name="Jan_2008_Contributors_1" localSheetId="0">'Jan 2008 (Sample)0'!$B$4:$C$4</definedName>
+    <definedName name="Jan_2008_Contributors" localSheetId="0">'Jan 2008'!$B$2:$C$3</definedName>
+    <definedName name="Jan_2008_Contributors_1" localSheetId="0">'Jan 2008'!$B$4:$C$4</definedName>
     <definedName name="Jan_2008_LOC" localSheetId="3">Sheet2!$A$1:$D$12</definedName>
     <definedName name="Jan_2008_test_2" localSheetId="1">'RAW DATA'!$A$1:$C$46</definedName>
   </definedNames>
@@ -38,7 +38,7 @@
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="42">
   <si>
     <t xml:space="preserve">Contributor Name </t>
   </si>
@@ -308,18 +308,6 @@
   </si>
   <si>
     <t>GHTorrent_ID</t>
-  </si>
-  <si>
-    <t>db/ Ownership</t>
-  </si>
-  <si>
-    <t>util/ Ownership</t>
-  </si>
-  <si>
-    <t>grid/ Ownership</t>
-  </si>
-  <si>
-    <t>bin/ Ownership</t>
   </si>
 </sst>
 </file>
@@ -684,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1258"/>
+  <dimension ref="A1:U1258"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,17 +689,17 @@
     <col min="7" max="7" width="28.7109375" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="16" max="17" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="18.28515625" customWidth="1"/>
+    <col min="17" max="17" width="16" customWidth="1"/>
+    <col min="19" max="20" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -744,38 +732,35 @@
         <v>40</v>
       </c>
       <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" t="s">
+      <c r="R1" s="1"/>
+      <c r="S1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T1" t="s">
-        <v>43</v>
-      </c>
-      <c r="U1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>505949</v>
       </c>
@@ -796,39 +781,37 @@
         <f>SUMPRODUCT(SUMIF($D$1:$D$21,J2,$H$1:$H$21))</f>
         <v>105.75399999999999</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3">
         <v>0</v>
       </c>
-      <c r="M2">
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
         <v>1</v>
       </c>
-      <c r="N2" s="3">
+      <c r="Q2" s="3">
+        <f>MAX(L2:N2)</f>
         <v>1</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" t="s">
+      <c r="R2" s="1"/>
+      <c r="S2" t="s">
         <v>13</v>
       </c>
-      <c r="Q2">
+      <c r="T2">
         <v>1</v>
       </c>
-      <c r="R2">
+      <c r="U2">
         <v>1</v>
       </c>
-      <c r="S2" s="3">
-        <v>1</v>
-      </c>
-      <c r="T2" s="3">
-        <v>0.37</v>
-      </c>
-      <c r="U2" s="3">
-        <v>0</v>
-      </c>
-      <c r="V2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -857,39 +840,37 @@
         <f>SUMPRODUCT(SUMIF($D$1:$D$21,J3,$H$1:$H$21))</f>
         <v>8.6750000000000007</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="M3" s="3">
         <v>0</v>
       </c>
-      <c r="M3">
+      <c r="N3" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>2</v>
       </c>
-      <c r="N3" s="3">
-        <v>0.64</v>
-      </c>
-      <c r="O3" s="1"/>
-      <c r="P3" t="s">
+      <c r="Q3" s="3">
+        <f t="shared" ref="Q3:Q5" si="0">MAX(L3:N3)</f>
+        <v>0.63</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" t="s">
         <v>37</v>
       </c>
-      <c r="Q3">
+      <c r="T3">
         <v>1</v>
       </c>
-      <c r="R3">
+      <c r="U3">
         <v>1</v>
       </c>
-      <c r="S3" s="3">
-        <v>0</v>
-      </c>
-      <c r="T3" s="3">
-        <v>0</v>
-      </c>
-      <c r="U3" s="3">
-        <v>0.82</v>
-      </c>
-      <c r="V3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -912,42 +893,40 @@
         <v>29</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K3:K5" si="0">SUMPRODUCT(SUMIF($D$1:$D$21,J4,$H$1:$H$21))</f>
+        <f t="shared" ref="K4:K5" si="1">SUMPRODUCT(SUMIF($D$1:$D$21,J4,$H$1:$H$21))</f>
         <v>9.7199999999999989</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>0</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
         <v>2</v>
       </c>
-      <c r="N4" s="3">
-        <v>0.78</v>
-      </c>
-      <c r="O4" s="1"/>
-      <c r="P4" t="s">
+      <c r="Q4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.82</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" t="s">
         <v>30</v>
       </c>
-      <c r="Q4">
+      <c r="T4">
         <v>2</v>
       </c>
-      <c r="R4">
+      <c r="U4">
         <v>1</v>
       </c>
-      <c r="S4" s="3">
-        <v>0</v>
-      </c>
-      <c r="T4" s="3">
-        <v>0.63</v>
-      </c>
-      <c r="U4" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="V4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>17</v>
       </c>
@@ -970,21 +949,31 @@
         <v>32</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8000000000000003</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>0</v>
       </c>
-      <c r="M5">
-        <v>1</v>
+      <c r="M5" s="3">
+        <v>0</v>
       </c>
       <c r="N5" s="3">
         <v>1</v>
       </c>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>18</v>
       </c>
@@ -999,13 +988,13 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6">
-        <f t="shared" ref="H6:H11" si="1">E6*F7</f>
+        <f t="shared" ref="H6:H11" si="2">E6*F7</f>
         <v>32</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>19</v>
       </c>
@@ -1020,13 +1009,13 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -1041,13 +1030,13 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>21</v>
       </c>
@@ -1062,13 +1051,13 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>22</v>
       </c>
@@ -1083,13 +1072,13 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>23</v>
       </c>
@@ -1104,13 +1093,13 @@
       </c>
       <c r="G11" s="3"/>
       <c r="H11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>24</v>
       </c>
@@ -1129,9 +1118,9 @@
         <v>24.975999999999999</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>17</v>
       </c>
@@ -1144,15 +1133,15 @@
         <v>2.996</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E14" s="3"/>
       <c r="G14" s="3"/>
       <c r="I14" s="1"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>505901</v>
       </c>
@@ -1171,9 +1160,9 @@
       </c>
       <c r="G15" s="3"/>
       <c r="I15" s="1"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>28</v>
       </c>
@@ -1195,14 +1184,14 @@
         <v>8</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G17" s="3"/>
       <c r="I17" s="1"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>505916</v>
       </c>
@@ -1215,9 +1204,9 @@
       <c r="D18" s="3"/>
       <c r="G18" s="3"/>
       <c r="I18" s="1"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>32</v>
       </c>
@@ -1236,9 +1225,9 @@
         <v>2.8000000000000003</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>29</v>
       </c>
@@ -1257,9 +1246,9 @@
         <v>1.7199999999999998</v>
       </c>
       <c r="I20" s="1"/>
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>17</v>
       </c>
@@ -1278,313 +1267,313 @@
         <v>5.4600000000000009</v>
       </c>
       <c r="I21" s="1"/>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G22" s="3"/>
       <c r="I22" s="1"/>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I23" s="1"/>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E24" s="3"/>
       <c r="I24" s="1"/>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E25" s="3"/>
       <c r="I25" s="1"/>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E26" s="3"/>
       <c r="I26" s="1"/>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E27" s="3"/>
       <c r="I27" s="1"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E28" s="3"/>
       <c r="I28" s="1"/>
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E29" s="3"/>
       <c r="I29" s="1"/>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R29" s="1"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E30" s="3"/>
       <c r="I30" s="1"/>
-      <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R30" s="1"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E31" s="3"/>
       <c r="I31" s="1"/>
-      <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R31" s="1"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E32" s="3"/>
       <c r="I32" s="1"/>
-      <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="R32" s="1"/>
+    </row>
+    <row r="33" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E33" s="3"/>
       <c r="I33" s="1"/>
-      <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E34" s="3"/>
       <c r="I34" s="1"/>
-      <c r="O34" s="1"/>
-    </row>
-    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="R34" s="1"/>
+    </row>
+    <row r="35" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E35" s="3"/>
       <c r="I35" s="1"/>
-      <c r="O35" s="1"/>
-    </row>
-    <row r="36" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="R35" s="1"/>
+    </row>
+    <row r="36" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E36" s="3"/>
       <c r="I36" s="1"/>
-      <c r="O36" s="1"/>
-    </row>
-    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="R36" s="1"/>
+    </row>
+    <row r="37" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E37" s="3"/>
       <c r="I37" s="1"/>
-      <c r="O37" s="1"/>
-    </row>
-    <row r="38" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="R37" s="1"/>
+    </row>
+    <row r="38" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E38" s="3"/>
       <c r="I38" s="1"/>
-      <c r="O38" s="1"/>
-    </row>
-    <row r="39" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="R38" s="1"/>
+    </row>
+    <row r="39" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E39" s="3"/>
       <c r="I39" s="1"/>
-      <c r="O39" s="1"/>
-    </row>
-    <row r="40" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="R39" s="1"/>
+    </row>
+    <row r="40" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E40" s="3"/>
       <c r="I40" s="1"/>
-      <c r="O40" s="1"/>
-    </row>
-    <row r="41" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="R40" s="1"/>
+    </row>
+    <row r="41" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E41" s="3"/>
       <c r="I41" s="1"/>
-      <c r="O41" s="1"/>
-    </row>
-    <row r="42" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="R41" s="1"/>
+    </row>
+    <row r="42" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E42" s="3"/>
       <c r="I42" s="1"/>
-      <c r="O42" s="1"/>
-    </row>
-    <row r="43" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="R42" s="1"/>
+    </row>
+    <row r="43" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E43" s="3"/>
       <c r="I43" s="1"/>
-      <c r="O43" s="1"/>
-    </row>
-    <row r="44" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="R43" s="1"/>
+    </row>
+    <row r="44" spans="5:18" x14ac:dyDescent="0.25">
       <c r="I44" s="1"/>
-      <c r="O44" s="1"/>
-    </row>
-    <row r="45" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="R44" s="1"/>
+    </row>
+    <row r="45" spans="5:18" x14ac:dyDescent="0.25">
       <c r="I45" s="1"/>
-      <c r="O45" s="1"/>
-    </row>
-    <row r="46" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="R45" s="1"/>
+    </row>
+    <row r="46" spans="5:18" x14ac:dyDescent="0.25">
       <c r="I46" s="1"/>
-      <c r="O46" s="1"/>
-    </row>
-    <row r="47" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="R46" s="1"/>
+    </row>
+    <row r="47" spans="5:18" x14ac:dyDescent="0.25">
       <c r="I47" s="1"/>
-      <c r="O47" s="1"/>
-    </row>
-    <row r="48" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="R47" s="1"/>
+    </row>
+    <row r="48" spans="5:18" x14ac:dyDescent="0.25">
       <c r="I48" s="1"/>
-      <c r="O48" s="1"/>
-    </row>
-    <row r="49" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="R48" s="1"/>
+    </row>
+    <row r="49" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I49" s="1"/>
-      <c r="O49" s="1"/>
-    </row>
-    <row r="50" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="R49" s="1"/>
+    </row>
+    <row r="50" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I50" s="1"/>
-      <c r="O50" s="1"/>
-    </row>
-    <row r="51" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="R50" s="1"/>
+    </row>
+    <row r="51" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I51" s="1"/>
-      <c r="O51" s="1"/>
-    </row>
-    <row r="52" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="R51" s="1"/>
+    </row>
+    <row r="52" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I52" s="1"/>
-      <c r="O52" s="1"/>
-    </row>
-    <row r="53" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="R52" s="1"/>
+    </row>
+    <row r="53" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I53" s="1"/>
-      <c r="O53" s="1"/>
-    </row>
-    <row r="54" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="R53" s="1"/>
+    </row>
+    <row r="54" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I54" s="1"/>
-      <c r="O54" s="1"/>
-    </row>
-    <row r="55" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="R54" s="1"/>
+    </row>
+    <row r="55" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I55" s="1"/>
-      <c r="O55" s="1"/>
-    </row>
-    <row r="56" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="R55" s="1"/>
+    </row>
+    <row r="56" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I56" s="1"/>
-      <c r="O56" s="1"/>
-    </row>
-    <row r="57" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="R56" s="1"/>
+    </row>
+    <row r="57" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I57" s="1"/>
-      <c r="O57" s="1"/>
-    </row>
-    <row r="58" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="R57" s="1"/>
+    </row>
+    <row r="58" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I58" s="1"/>
-      <c r="O58" s="1"/>
-    </row>
-    <row r="59" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="R58" s="1"/>
+    </row>
+    <row r="59" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I59" s="1"/>
-      <c r="O59" s="1"/>
-    </row>
-    <row r="60" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="R59" s="1"/>
+    </row>
+    <row r="60" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I60" s="1"/>
-      <c r="O60" s="1"/>
-    </row>
-    <row r="61" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="R60" s="1"/>
+    </row>
+    <row r="61" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I61" s="1"/>
-      <c r="O61" s="1"/>
-    </row>
-    <row r="62" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="R61" s="1"/>
+    </row>
+    <row r="62" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I62" s="1"/>
-      <c r="O62" s="1"/>
-    </row>
-    <row r="63" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="R62" s="1"/>
+    </row>
+    <row r="63" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I63" s="1"/>
-      <c r="O63" s="1"/>
-    </row>
-    <row r="64" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="R63" s="1"/>
+    </row>
+    <row r="64" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I64" s="1"/>
-      <c r="O64" s="1"/>
-    </row>
-    <row r="65" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="R64" s="1"/>
+    </row>
+    <row r="65" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I65" s="1"/>
-      <c r="O65" s="1"/>
-    </row>
-    <row r="66" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="R65" s="1"/>
+    </row>
+    <row r="66" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I66" s="1"/>
-      <c r="O66" s="1"/>
-    </row>
-    <row r="67" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="R66" s="1"/>
+    </row>
+    <row r="67" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I67" s="1"/>
-      <c r="O67" s="1"/>
-    </row>
-    <row r="68" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="R67" s="1"/>
+    </row>
+    <row r="68" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I68" s="1"/>
-      <c r="O68" s="1"/>
-    </row>
-    <row r="69" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="R68" s="1"/>
+    </row>
+    <row r="69" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I69" s="1"/>
-      <c r="O69" s="1"/>
-    </row>
-    <row r="70" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="R69" s="1"/>
+    </row>
+    <row r="70" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I70" s="1"/>
-      <c r="O70" s="1"/>
-    </row>
-    <row r="71" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="R70" s="1"/>
+    </row>
+    <row r="71" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I71" s="1"/>
-      <c r="O71" s="1"/>
-    </row>
-    <row r="72" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="R71" s="1"/>
+    </row>
+    <row r="72" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I72" s="1"/>
-      <c r="O72" s="1"/>
-    </row>
-    <row r="73" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="R72" s="1"/>
+    </row>
+    <row r="73" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I73" s="1"/>
-      <c r="O73" s="1"/>
-    </row>
-    <row r="74" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="R73" s="1"/>
+    </row>
+    <row r="74" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I74" s="1"/>
-      <c r="O74" s="1"/>
-    </row>
-    <row r="75" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="R74" s="1"/>
+    </row>
+    <row r="75" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I75" s="1"/>
-      <c r="O75" s="1"/>
-    </row>
-    <row r="76" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="R75" s="1"/>
+    </row>
+    <row r="76" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I76" s="1"/>
-      <c r="O76" s="1"/>
-    </row>
-    <row r="77" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="R76" s="1"/>
+    </row>
+    <row r="77" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I77" s="1"/>
-      <c r="O77" s="1"/>
-    </row>
-    <row r="78" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="R77" s="1"/>
+    </row>
+    <row r="78" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I78" s="1"/>
-      <c r="O78" s="1"/>
-    </row>
-    <row r="79" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="R78" s="1"/>
+    </row>
+    <row r="79" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I79" s="1"/>
-      <c r="O79" s="1"/>
-    </row>
-    <row r="80" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="R79" s="1"/>
+    </row>
+    <row r="80" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I80" s="1"/>
-      <c r="O80" s="1"/>
-    </row>
-    <row r="81" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="R80" s="1"/>
+    </row>
+    <row r="81" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I81" s="1"/>
-      <c r="O81" s="1"/>
-    </row>
-    <row r="82" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="R81" s="1"/>
+    </row>
+    <row r="82" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I82" s="1"/>
-      <c r="O82" s="1"/>
-    </row>
-    <row r="83" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="R82" s="1"/>
+    </row>
+    <row r="83" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="9:18" x14ac:dyDescent="0.25">
       <c r="I96" s="1"/>
     </row>
     <row r="97" spans="9:9" x14ac:dyDescent="0.25">
@@ -5084,7 +5073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
